--- a/biology/Botanique/Erianthus/Erianthus.xlsx
+++ b/biology/Botanique/Erianthus/Erianthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erianthus est un genre de plantes monocotylédones  de la famille des Poaceae, sous-famille des Panicoideae, originaire du sud-est asiatique, qui comprend une trentaine d'espèces.
 Ce sont des plantes vivaces du type « roseau », pouvant atteindre de 2 à 4 mètres de haut, qui poussent dans les savanes plus ou moins humides.
-Le genre Erianthus est très proche du genre Saccharum et fait partie avec ce dernier du « complexe Saccharum » qui englobe également les genres Sclerostachya, Narenga et Miscanthus. Les hybridations intergénériques  entre ces cinq genres sont possibles[3].
+Le genre Erianthus est très proche du genre Saccharum et fait partie avec ce dernier du « complexe Saccharum » qui englobe également les genres Sclerostachya, Narenga et Miscanthus. Les hybridations intergénériques  entre ces cinq genres sont possibles.
 Le genre Erianthus a subi plusieurs révisions et pourrait ne plus être considéré comme valide à l'avenir.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (26 mars 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (26 mars 2018) (Attention liste brute contenant possiblement des synonymes) :
 Erianthus adpressus Jáv.
 Erianthus alopecuroides (L.) Elliott
 Erianthus angustifolius Nees
@@ -639,7 +653,9 @@
           <t>Espèces sorties de ce genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour Erianthus ravennae (L.) P.Beauv., voir Saccharum ravennae (L.) L.
 </t>
